--- a/resources/OrderDetails_template.xlsx
+++ b/resources/OrderDetails_template.xlsx
@@ -1192,10 +1192,10 @@
   </sheetPr>
   <dimension ref="A1:R3826"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1210,7 +1210,10 @@
     <col min="13" max="13" width="20.42578125" style="24" customWidth="1"/>
     <col min="14" max="14" width="0.85546875" style="17" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="17"/>
+    <col min="16" max="16" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="8" customFormat="1">
